--- a/Meetings/Meeting Transaction/Main.rvl.xlsx
+++ b/Meetings/Meeting Transaction/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="61">
   <si>
     <t>Flow</t>
   </si>
@@ -103,6 +103,99 @@
   </si>
   <si>
     <t>C:\SpiraRepository\UX 365 Regression Testing\Meetings\Create Event Session Setup</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>message</t>
+  </si>
+  <si>
+    <t>****Test runs all tests required to test a product sales transaction from start to finish.</t>
+  </si>
+  <si>
+    <t>*****All Product Setup must already be created prior to running this test.</t>
+  </si>
+  <si>
+    <t>****Test runs all tests required to create a meeting registration with a session and guest from start to finish.</t>
+  </si>
+  <si>
+    <t>*****All Meeting Setup must already be created prior to running this test.</t>
+  </si>
+  <si>
+    <t>Begin Transaction</t>
+  </si>
+  <si>
+    <t>********Run Test: Begin Transaction*******</t>
+  </si>
+  <si>
+    <t>DoPlayScript</t>
+  </si>
+  <si>
+    <t>scriptPath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Invoice\Begin Transaction\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>Add Main Registration</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Add Main Event Registration Transaction</t>
+  </si>
+  <si>
+    <t>********Run Test: Add Main Event Registration Transaction*******</t>
+  </si>
+  <si>
+    <t>Add Session Registration</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Add Session Registration Transaction</t>
+  </si>
+  <si>
+    <t>********Run Test: Add Session Registration Transaction*******</t>
+  </si>
+  <si>
+    <t>Add Guest Registration</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Add Guest Event Registration Transaction</t>
+  </si>
+  <si>
+    <t>********Run Test: Add Guest Event Registration Transaction*******</t>
+  </si>
+  <si>
+    <t>Pay Invoice in full via check</t>
+  </si>
+  <si>
+    <t>Pay Invoice</t>
+  </si>
+  <si>
+    <t>********Run Test: Pay invoice in full with check*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Payments\Pay invoice in full with check\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>Cancel Meeting and Apply Cancellation Fee</t>
+  </si>
+  <si>
+    <t>********Run Test: Cancel Meeting Registration and Add Cancellation Fee*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Cancel Meeting Registration and Add Cancellation Fee</t>
+  </si>
+  <si>
+    <t>Transaction Clean Up</t>
+  </si>
+  <si>
+    <t>********Run Test: Transaction Clean Up*******</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Invoice\Transaction Clean Up\Main.rvl.xlsx</t>
   </si>
 </sst>
 </file>
@@ -123,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="176">
+  <borders count="210">
     <border>
       <left/>
       <right/>
@@ -306,11 +399,45 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -487,6 +614,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="173" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="174" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="175" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="176" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="177" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="178" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="179" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="180" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="181" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="182" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="183" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="184" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="185" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="186" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="187" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="188" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="189" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="190" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="191" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="192" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="193" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="194" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="195" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="196" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="197" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="198" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="199" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="200" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="201" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="202" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="203" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="204" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="205" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="206" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,84 +707,91 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="24"/>
+      <c r="A3" s="209"/>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="177"/>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="176"/>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="17"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="32"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="41"/>
-      <c r="B6" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="48"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="171"/>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="50" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="56"/>
+      <c r="A8" s="179"/>
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="172"/>
+      <c r="A9" s="178"/>
       <c r="B9" t="s">
         <v>3</v>
       </c>
@@ -631,274 +799,343 @@
         <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
         <v>24</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
+      <c r="A10" s="169"/>
     </row>
     <row r="11">
-      <c r="A11" s="65" t="s">
+      <c r="A11" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="66" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="71"/>
-      <c r="H11" s="72"/>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="173"/>
+      <c r="A12" s="187"/>
       <c r="B12" t="s">
         <v>3</v>
       </c>
       <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="186"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
+      <c r="D13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="181"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="82" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="88"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="174"/>
       <c r="B15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="189"/>
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="188"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>21</v>
       </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="89"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="91"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="95"/>
-      <c r="H16" s="96"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="97" t="s">
+      <c r="D17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="182"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="98" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="104"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="175"/>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="195"/>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="194"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="105"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="107"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="110"/>
-      <c r="G19" s="111"/>
-      <c r="H19" s="112"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="113"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115"/>
-      <c r="D20" s="116"/>
-      <c r="E20" s="117"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="119"/>
-      <c r="H20" s="120"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="121" t="s">
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="183" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="122" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="123"/>
-      <c r="D21" s="124"/>
-      <c r="E21" s="125"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="129" t="s">
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="201"/>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="200"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="204"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="131"/>
-      <c r="D22" s="132"/>
-      <c r="E22" s="133"/>
-      <c r="F22" s="134"/>
-      <c r="G22" s="135"/>
-      <c r="H22" s="136"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="137"/>
-      <c r="B23" s="138"/>
-      <c r="C23" s="139"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="143"/>
-      <c r="H23" s="144"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="145"/>
-      <c r="B24" s="146"/>
-      <c r="C24" s="147"/>
-      <c r="D24" s="148"/>
-      <c r="E24" s="149"/>
-      <c r="F24" s="150"/>
-      <c r="G24" s="151"/>
-      <c r="H24" s="152"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="153" t="s">
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="198"/>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="197"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="184"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="154" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="156"/>
-      <c r="E25" s="157"/>
-      <c r="F25" s="158"/>
-      <c r="G25" s="159"/>
-      <c r="H25" s="160"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="161"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="162"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="163" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="164"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="165"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="166" t="s">
-        <v>8</v>
-      </c>
       <c r="B31" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="167"/>
+      <c r="A32" s="207"/>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="168"/>
+      <c r="A33" s="206"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="169"/>
+      <c r="A34" s="205"/>
     </row>
     <row r="35">
-      <c r="A35" s="170"/>
+      <c r="A35" s="185"/>
     </row>
   </sheetData>
 </worksheet>

--- a/Meetings/Meeting Transaction/Main.rvl.xlsx
+++ b/Meetings/Meeting Transaction/Main.rvl.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="69">
   <si>
     <t>Flow</t>
   </si>
@@ -196,6 +196,30 @@
   </si>
   <si>
     <t>C:\UX365RegressionTest\Invoice\Transaction Clean Up\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Add Main Event Registration Transaction\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Add Session Registration Transaction\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Add Guest Event Registration Transaction\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Meetings\Cancel Meeting Registration and Add Cancellation Fee\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>Global</t>
+  </si>
+  <si>
+    <t>DoLoadObjects</t>
+  </si>
+  <si>
+    <t>objectsFilePath</t>
+  </si>
+  <si>
+    <t>C:\UX365RegressionTest\Objects.js</t>
   </si>
 </sst>
 </file>
@@ -216,7 +240,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="210">
+  <borders count="212">
     <border>
       <left/>
       <right/>
@@ -433,11 +457,13 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="210">
+  <cellXfs count="212">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -648,6 +674,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="207" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="208" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="209" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="210" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="211" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,7 +685,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:H36"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.5546875" customWidth="true"/>
@@ -707,31 +735,31 @@
       <c r="H2" s="16"/>
     </row>
     <row r="3">
-      <c r="A3" s="209"/>
+      <c r="A3" s="211"/>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="177"/>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>35</v>
-      </c>
+      <c r="A4" s="209"/>
     </row>
     <row r="5">
-      <c r="A5" s="176"/>
+      <c r="A5" s="177"/>
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -748,394 +776,415 @@
         <v>24</v>
       </c>
       <c r="G5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="176"/>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="17"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
-    </row>
     <row r="7">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="17"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="180" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="179"/>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9">
+      <c r="A9" s="179"/>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="178"/>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="10">
+      <c r="A10" s="178"/>
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>40</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="169"/>
-    </row>
     <row r="11">
-      <c r="A11" s="170" t="s">
+      <c r="A11" s="169"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="187"/>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="13">
+      <c r="A13" s="187"/>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>31</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E13" t="s">
         <v>32</v>
       </c>
-      <c r="F12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="186"/>
-      <c r="B13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14">
+      <c r="A14" s="186"/>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>21</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>39</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>40</v>
       </c>
-      <c r="F13" t="s">
-        <v>24</v>
-      </c>
-      <c r="G13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="181"/>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="190" t="s">
+      <c r="A15" s="181"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="190" t="s">
         <v>8</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="189"/>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="17">
+      <c r="A17" s="189"/>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>30</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>32</v>
       </c>
-      <c r="F16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="188"/>
-      <c r="B17" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="18">
+      <c r="A18" s="188"/>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>39</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="182"/>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="196" t="s">
+      <c r="A19" s="182"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="196" t="s">
         <v>8</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="195"/>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" t="s">
+    <row r="21">
+      <c r="A21" s="195"/>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D21" t="s">
         <v>31</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>32</v>
       </c>
-      <c r="F20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="194"/>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" t="s">
+    <row r="22">
+      <c r="A22" s="194"/>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>39</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>40</v>
       </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="183" t="s">
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="183" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="199" t="s">
+    <row r="24">
+      <c r="A24" s="199" t="s">
         <v>8</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="201"/>
-      <c r="B24" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" t="s">
+    <row r="25">
+      <c r="A25" s="201"/>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>32</v>
       </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="200"/>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="26">
+      <c r="A26" s="200"/>
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>21</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>39</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E26" t="s">
         <v>40</v>
       </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
+      <c r="F26" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="204"/>
-    </row>
     <row r="27">
-      <c r="A27" s="203" t="s">
+      <c r="A27" s="204"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="203" t="s">
         <v>8</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="198"/>
-      <c r="B28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" t="s">
+    <row r="29">
+      <c r="A29" s="198"/>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>30</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>31</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>32</v>
       </c>
-      <c r="F28" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" t="s">
+      <c r="F29" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="197"/>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" t="s">
+    <row r="30">
+      <c r="A30" s="197"/>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>21</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D30" t="s">
         <v>39</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>40</v>
       </c>
-      <c r="F29" t="s">
-        <v>24</v>
-      </c>
-      <c r="G29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="184"/>
+      <c r="F30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="208" t="s">
+      <c r="A31" s="184"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="208" t="s">
         <v>8</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="207"/>
-      <c r="B32" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" t="s">
+    <row r="33">
+      <c r="A33" s="207"/>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>32</v>
       </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="206"/>
-      <c r="B33" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" t="s">
+    <row r="34">
+      <c r="A34" s="206"/>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>21</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>39</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E34" t="s">
         <v>40</v>
       </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="205"/>
-    </row>
     <row r="35">
-      <c r="A35" s="185"/>
+      <c r="A35" s="205"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="185"/>
     </row>
   </sheetData>
 </worksheet>
